--- a/medicine/Psychotrope/Typicité/Typicité.xlsx
+++ b/medicine/Psychotrope/Typicité/Typicité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Typicit%C3%A9</t>
+          <t>Typicité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La typicité (en anglais typicity, en italien tipicità) est un terme de la dégustation du vin utilisé depuis le début des années 1990 pour décrire le degré qu’a un vin à refléter son terroir et son cépage.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Typicit%C3%A9</t>
+          <t>Typicité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un composant important lors des concours des vins lorsque des vins d’une même variété doivent être jugés l’un contre l’autre[1]. La typicité est associée au sol, au cépage et à l’histoire du savoir-faire de ce terroir viticole.
-Dans certains pays, comme en Autriche, la typicité est utilisée comme une partie de la hiérarchie qualitative prenant en considération le sol, le climat et le millésime. C’est un concept similaire au terroir français, cependant moins controversé, le Qualitätswein autrichien (littéralement « vin de qualité ») est testé pour la typicité avec une impression sur l’étiquette de la classification[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un composant important lors des concours des vins lorsque des vins d’une même variété doivent être jugés l’un contre l’autre. La typicité est associée au sol, au cépage et à l’histoire du savoir-faire de ce terroir viticole.
+Dans certains pays, comme en Autriche, la typicité est utilisée comme une partie de la hiérarchie qualitative prenant en considération le sol, le climat et le millésime. C’est un concept similaire au terroir français, cependant moins controversé, le Qualitätswein autrichien (littéralement « vin de qualité ») est testé pour la typicité avec une impression sur l’étiquette de la classification.
 Dans la règlementation européenne, l’AOP (en France AOC) est censée refléter le terroir, autrement dit sa typicité.
-Comme concept, la typicité repose à la fois sur les précédents historiques et les sentiments actuels du goût que peut avoir une variété. Ceci peut être considéré comme une mesure subjective et non fiable[1], ouvrant à un certain élitisme et critiqué par certains, comme Sean Thackrey (vigneron américain), comme du racisme viticole[3].
+Comme concept, la typicité repose à la fois sur les précédents historiques et les sentiments actuels du goût que peut avoir une variété. Ceci peut être considéré comme une mesure subjective et non fiable, ouvrant à un certain élitisme et critiqué par certains, comme Sean Thackrey (vigneron américain), comme du racisme viticole.
 </t>
         </is>
       </c>
